--- a/medicine/Enfance/Association_Enfants_d'Asie/Association_Enfants_d'Asie.xlsx
+++ b/medicine/Enfance/Association_Enfants_d'Asie/Association_Enfants_d'Asie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Association_Enfants_d%27Asie</t>
+          <t>Association_Enfants_d'Asie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Enfants d'Asie est une association française reconnue d’utilité publique dont la vocation est le parrainage d'enfants en Asie du Sud-Est. Sa spécificité est d'accompagner l'enfant tout au long de sa scolarité, jusqu'à sa formation professionnelle ou ses études supérieures s'il le peut, sinon jusqu'à l'entrée dans la vie active.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Association_Enfants_d%27Asie</t>
+          <t>Association_Enfants_d'Asie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Historique et controverses</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fondé en 1991, Enfants d'Asie accompagne près de 10 000 enfants défavorisés en Asie du Sud-Est. Ces enfants sont accueillis dans des orphelinats et des foyers, ou sont externes, au Cambodge, au Laos, aux Philippines et au Vietnam[1].
-L'association est créée en 1991 à Phnom Penh par des bénévoles pour venir en aide aux jeunes et enfants cambodgiens à la suite de la chute du régime khmer rouge. L'association soutient des enfants par le biais du parrainage. Elle réalise également des travaux de reconstruction des structures éducatives : orphelinats, réfectoires, salles de classe[2].
-En 1994, Enfants d'Asie commence son action au Laos, à Vientiane, en soutien à des enfants de districts jugés défavorisés de la capitale. Des programmes sont ensuite ouverts dans le Nord du pays et dans la ville de Luang Prabang[3].
-Enfants d'Asie commence le parrainage au Vietnam en 1996 d'abord à Ho Chi Minh Ville puis en soutien aux minorités ethniques du centre du pays, ainsi que dans la région du delta du Mékong[4],[5].
-En 1997, Enfants d'Asie lance un programme aux Philippines, sur l'île de Cébu, à destination des jeunes filles des bidonvilles. Au cours de la décennie 2000, Enfants d'Asie développe de nouveaux programmes de soutien aux enfants et jeunes sur toute l'île[6].
-Progressivement de nouveaux programmes sont mis en place : cours de soutien scolaire, accompagnement à l'insertion socio-professionnelle, ateliers de développement, sensibilisation à l'environnement[7]...
-De 1995 à 1997, Gérard Louvin est président de l'association Enfants d'Asie. Il intègre l'association dès 1991. Des accusations de pédophilie semblent avoir provoqué son départ à la demande des membres du Conseil d'Administration de l'époque[8],[9]. 
-Le fondateur de l'association, Charles Fejtö, est licencié par Enfants d'Asie en 1999 à la suite d'accusations de détournement de fonds. L'association porte plainte contre lui[10] et, en juin 2003, il est jugé pour agression sexuelle sur mineure.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fondé en 1991, Enfants d'Asie accompagne près de 10 000 enfants défavorisés en Asie du Sud-Est. Ces enfants sont accueillis dans des orphelinats et des foyers, ou sont externes, au Cambodge, au Laos, aux Philippines et au Vietnam.
+L'association est créée en 1991 à Phnom Penh par des bénévoles pour venir en aide aux jeunes et enfants cambodgiens à la suite de la chute du régime khmer rouge. L'association soutient des enfants par le biais du parrainage. Elle réalise également des travaux de reconstruction des structures éducatives : orphelinats, réfectoires, salles de classe.
+En 1994, Enfants d'Asie commence son action au Laos, à Vientiane, en soutien à des enfants de districts jugés défavorisés de la capitale. Des programmes sont ensuite ouverts dans le Nord du pays et dans la ville de Luang Prabang.
+Enfants d'Asie commence le parrainage au Vietnam en 1996 d'abord à Ho Chi Minh Ville puis en soutien aux minorités ethniques du centre du pays, ainsi que dans la région du delta du Mékong,.
+En 1997, Enfants d'Asie lance un programme aux Philippines, sur l'île de Cébu, à destination des jeunes filles des bidonvilles. Au cours de la décennie 2000, Enfants d'Asie développe de nouveaux programmes de soutien aux enfants et jeunes sur toute l'île.
+Progressivement de nouveaux programmes sont mis en place : cours de soutien scolaire, accompagnement à l'insertion socio-professionnelle, ateliers de développement, sensibilisation à l'environnement...
+De 1995 à 1997, Gérard Louvin est président de l'association Enfants d'Asie. Il intègre l'association dès 1991. Des accusations de pédophilie semblent avoir provoqué son départ à la demande des membres du Conseil d'Administration de l'époque,. 
+Le fondateur de l'association, Charles Fejtö, est licencié par Enfants d'Asie en 1999 à la suite d'accusations de détournement de fonds. L'association porte plainte contre lui et, en juin 2003, il est jugé pour agression sexuelle sur mineure.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Association_Enfants_d%27Asie</t>
+          <t>Association_Enfants_d'Asie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,9 +563,11 @@
           <t>Modes de parrainage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les parrainages proposés peuvent prendre plusieurs formes[11] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les parrainages proposés peuvent prendre plusieurs formes :
 parrainages individuels : le parrain a une relation personnalisée avec le filleul par le biais d'échanges de courrier, de photos ou de cadeaux, de visites, envois réguliers des résultats scolaires, etc.
 parrainages collectifs : les parrains ne connaissent pas leur filleul, mais soutiennent un centre, une école ou encore un projet.</t>
         </is>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Association_Enfants_d%27Asie</t>
+          <t>Association_Enfants_d'Asie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Projet de l'association</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les objectifs de cette ONG sont :
 Assurer les besoins essentiels des enfants les plus défavorisés : nourriture, logement, suivi médical et prévention, soutien affectif et moral.
